--- a/biology/Médecine/Bertold_Lasker/Bertold_Lasker.xlsx
+++ b/biology/Médecine/Bertold_Lasker/Bertold_Lasker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jonathan Bertold (aussi orthographié Berthold) Lasker (né le 31 décembre 1860 à Berlinchen, Neumark, mort le 19 octobre 1928 à Berlin) est un joueur d´échecs, médecin et écrivain allemand. Il se maria en premières noces à la poète Else Lasker-Schüler, et était le frère du champion du monde d´échecs Emanuel Lasker.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bertold Lasker était le fils d´un cantor juif, et le neveu d’un rabbin prestigieux. Il fréquenta le lycée Friedrichwerdersches (Friedrichwerdersches Gymnasium) à Berlin, et obtint son abitur en 1879[1]. 
-De 1881 à 1888, il étudia la médecine à l’université Humboldt de Berlin. Il exerça de manière provisoire en tant que médecin durant un an à Elberfeld où il fit la connaissance de sa future épouse Else Lasker-Schüler. Après leur mariage en 1894, le couple vécut à Berlin, où Lasker s´installa en tant que dermatologue et spécialiste des maladies des jambes[2].
-Ce mariage avec la célèbre poète fut malheureux : en 1899, le couple eut un fils, dont Else Lasker-Schüler contesta la paternité à Bertold Lasker devant les tribunaux, ce que le tribunal d´instance jugea recevable. Else Lasker-Schüler accusa son mari d´être l´auteur de violences conjugales, et le couple divorça en 1903[3].
-Bertold Lasker se rendit au début du siècle aux États-Unis pour un séjour de longue durée, où il tenta en vain d´ouvrir un second cabinet à New York[4].
-Par la suite, Lasker vécut à Berlin. Il mourut en 1928, seulement quelques mois après la mort de sa deuxième femme Regina[5]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bertold Lasker était le fils d´un cantor juif, et le neveu d’un rabbin prestigieux. Il fréquenta le lycée Friedrichwerdersches (Friedrichwerdersches Gymnasium) à Berlin, et obtint son abitur en 1879. 
+De 1881 à 1888, il étudia la médecine à l’université Humboldt de Berlin. Il exerça de manière provisoire en tant que médecin durant un an à Elberfeld où il fit la connaissance de sa future épouse Else Lasker-Schüler. Après leur mariage en 1894, le couple vécut à Berlin, où Lasker s´installa en tant que dermatologue et spécialiste des maladies des jambes.
+Ce mariage avec la célèbre poète fut malheureux : en 1899, le couple eut un fils, dont Else Lasker-Schüler contesta la paternité à Bertold Lasker devant les tribunaux, ce que le tribunal d´instance jugea recevable. Else Lasker-Schüler accusa son mari d´être l´auteur de violences conjugales, et le couple divorça en 1903.
+Bertold Lasker se rendit au début du siècle aux États-Unis pour un séjour de longue durée, où il tenta en vain d´ouvrir un second cabinet à New York.
+Par la suite, Lasker vécut à Berlin. Il mourut en 1928, seulement quelques mois après la mort de sa deuxième femme Regina
 </t>
         </is>
       </c>
@@ -546,16 +560,18 @@
           <t>Tournois d´échecs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans les années 1880, Berthold Lasker comptait parmi les meilleurs joueurs d´échecs de Berlin et de toute l´Allemagne, aux côtés de Curt von Bardeleben, Siegbert Tarrasch, Fritz Riemann, Emil Schallopp, Max Harmonist et Theodor von Scheve. Siegbert Tarrasch dit de Berthold Lasker qu´il était un « joueur génial, dont la force a malheureusement rarement été reconnue à sa juste valeur dans les tournois, à cause de sa nervosité[6] ».
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les années 1880, Berthold Lasker comptait parmi les meilleurs joueurs d´échecs de Berlin et de toute l´Allemagne, aux côtés de Curt von Bardeleben, Siegbert Tarrasch, Fritz Riemann, Emil Schallopp, Max Harmonist et Theodor von Scheve. Siegbert Tarrasch dit de Berthold Lasker qu´il était un « joueur génial, dont la force a malheureusement rarement été reconnue à sa juste valeur dans les tournois, à cause de sa nervosité ».
 Berthold Lasker participa a une série de tournois à Berlin :
 en 1881 (Hauptturnier 4 du congrès allemand d'échecs), il gagna sa partie face à Tarrasch ;
 en 1883, il finit 1er-4e du tournoi du Café Royal de Berlin ;
 en 1887, il fut 5e-6e avec 4,5 points sur 8 ;
-en 1890 il partagea avec son frère Emanuel Lasker la première place du tournoi nommé Turnier der Vereinigung Deutscher Schachmeister, devant Horatio Caro et Theodor von Scheve[7].
+en 1890 il partagea avec son frère Emanuel Lasker la première place du tournoi nommé Turnier der Vereinigung Deutscher Schachmeister, devant Horatio Caro et Theodor von Scheve.
 En 1891, il obtient une seconde place après Horatio Caro.
-Lors de son séjour aux États-Unis, Bertold Lasker gagna le tournoi de l´État de New York en 1902[8].
+Lors de son séjour aux États-Unis, Bertold Lasker gagna le tournoi de l´État de New York en 1902.
 </t>
         </is>
       </c>
@@ -586,12 +602,52 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Échecs
-Bertold Lasker a été initié aux échecs et introduit dans les tournois par son frère Emanuel Lasker, de huit ans son cadet, qui vivait chez lui à Berlin dans les années 1880.
+          <t>Échecs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bertold Lasker a été initié aux échecs et introduit dans les tournois par son frère Emanuel Lasker, de huit ans son cadet, qui vivait chez lui à Berlin dans les années 1880.
 Emanuel Lasker fut en effet champion du monde d´échecs de 1894 à 1921. 
-Linguistique et théâtre
-Bertold Lasker s´intéressait beaucoup aux domaines de la philosophie, de l´art et de la linguistique comparée, et il possédait de grandes connaissances sur ces sujets.
-Il écrivit en 1925 une pièce de théâtre Des hommes de l´Histoire (titre original : Vom Menschen die Geschichte) avec son frère Emanuel. La pièce ne fut jamais jouée, mais elle fut décrite comme une « pièce profondément morale et pensive »[9]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bertold_Lasker</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bertold_Lasker</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Bertold et Emanuel Lasker</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Linguistique et théâtre</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bertold Lasker s´intéressait beaucoup aux domaines de la philosophie, de l´art et de la linguistique comparée, et il possédait de grandes connaissances sur ces sujets.
+Il écrivit en 1925 une pièce de théâtre Des hommes de l´Histoire (titre original : Vom Menschen die Geschichte) avec son frère Emanuel. La pièce ne fut jamais jouée, mais elle fut décrite comme une « pièce profondément morale et pensive »
 </t>
         </is>
       </c>
